--- a/output/0/tRNA-Met-CAT-2-1.xlsx
+++ b/output/0/tRNA-Met-CAT-2-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>chr16</t>
   </si>
   <si>
-    <t>71459905</t>
-  </si>
-  <si>
-    <t>71459928</t>
+    <t>71460396</t>
+  </si>
+  <si>
+    <t>71460419</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>71459908</t>
+    <t>71460399</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,7 +38,7 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>GCTGGGGTCCTCCGTCTCCA</t>
+    <t>CGCTGCCCACTGCGCTAAGA</t>
   </si>
   <si>
     <t>GGG</t>
@@ -47,136 +47,91 @@
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
   </si>
   <si>
-    <t>69% (56)</t>
-  </si>
-  <si>
-    <t>57% (48)</t>
-  </si>
-  <si>
-    <t>80</t>
+    <t>46% (49)</t>
+  </si>
+  <si>
+    <t>31% (36)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>71460397</t>
+  </si>
+  <si>
+    <t>71460420</t>
+  </si>
+  <si>
+    <t>71460400</t>
+  </si>
+  <si>
+    <t>GCGCTGCCCACTGCGCTAAG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>23% (40)</t>
+  </si>
+  <si>
+    <t>79% (60)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>71460418</t>
+  </si>
+  <si>
+    <t>71460441</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>71460438</t>
+  </si>
+  <si>
+    <t>GCGTCAGTCTCATAATCTGA</t>
+  </si>
+  <si>
+    <t>91% (64)</t>
+  </si>
+  <si>
+    <t>14% (26)</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>71460442</t>
+  </si>
+  <si>
+    <t>71460465</t>
+  </si>
+  <si>
+    <t>71460462</t>
+  </si>
+  <si>
+    <t>CCTGAGTTCGAGCCTCAGAG</t>
+  </si>
+  <si>
+    <t>98% (71)</t>
   </si>
   <si>
     <t>62</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>71460391</t>
-  </si>
-  <si>
-    <t>71460414</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>71460411</t>
-  </si>
-  <si>
-    <t>AGAGGCCCTCTTAGCGCAGT</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>88% (67)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>71460396</t>
-  </si>
-  <si>
-    <t>71460419</t>
-  </si>
-  <si>
-    <t>71460399</t>
-  </si>
-  <si>
-    <t>CGCTGCCCACTGCGCTAAGA</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>31% (36)</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>71460397</t>
-  </si>
-  <si>
-    <t>71460420</t>
-  </si>
-  <si>
-    <t>71460400</t>
-  </si>
-  <si>
-    <t>GCGCTGCCCACTGCGCTAAG</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>23% (40)</t>
-  </si>
-  <si>
-    <t>79% (60)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>71460418</t>
-  </si>
-  <si>
-    <t>71460441</t>
-  </si>
-  <si>
-    <t>71460438</t>
-  </si>
-  <si>
-    <t>GCGTCAGTCTCATAATCTGA</t>
-  </si>
-  <si>
-    <t>91% (64)</t>
-  </si>
-  <si>
-    <t>14% (26)</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>71460442</t>
-  </si>
-  <si>
-    <t>71460465</t>
-  </si>
-  <si>
-    <t>71460462</t>
-  </si>
-  <si>
-    <t>CCTGAGTTCGAGCCTCAGAG</t>
-  </si>
-  <si>
-    <t>98% (71)</t>
   </si>
   <si>
     <t>71460445</t>
@@ -263,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -342,13 +297,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -360,10 +315,10 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
@@ -401,13 +356,13 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -419,25 +374,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -451,22 +406,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -478,10 +433,10 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
@@ -490,13 +445,13 @@
         <v>38</v>
       </c>
       <c r="O4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" t="s">
-        <v>40</v>
-      </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -510,22 +465,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -537,25 +492,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -569,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -596,148 +551,30 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>64</v>
-      </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" t="s">
         <v>3</v>
       </c>
     </row>
